--- a/storage/app/private/files/8.xlsx
+++ b/storage/app/private/files/8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelcarrerazurita/Desktop/YAVIRAC /Coordinación de Turismo /PERIODO 2021-10/CARGA CUPOS CARRERA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCEFCDF-ED24-2A4D-9809-2CF3D143158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C4546-FCF9-4115-BDC9-D4D538CD4ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{90F29573-DE81-6742-B3B1-FFC0D8541F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0A89665-40DE-5B45-8ADD-11F722107767}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -37,10 +28,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Cesar Mauricio Tamayo Lopez</author>
-    <author>Nicolas</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D67C5459-4F4C-CB44-B7C9-B2EB9B7B6B44}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{55868A9D-47F2-7E40-BFAE-CAC2B7B59DE2}">
       <text>
         <r>
           <rPr>
@@ -69,21 +59,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">sin espacios ni guion medio
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ej. 1724909443</t>
+          <t xml:space="preserve">1 cedula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 pasaporte</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DCFB57AD-6412-E34A-BA70-CB8DA4AC2917}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E73CD28C-326A-C14A-A587-791B7AF8148A}">
       <text>
         <r>
           <rPr>
@@ -112,21 +102,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 si
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2 no</t>
+          <t xml:space="preserve">sin espacios ni guion medio
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ej. 1724909443</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{82C35729-E336-0742-9D25-B199C8B8AD88}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E76B3777-F4CC-FB4A-9C33-A59C65535F1B}">
       <text>
         <r>
           <rPr>
@@ -155,21 +145,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 si
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2 no</t>
+          <t xml:space="preserve">Ej.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1990/12/18</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B9792636-A195-6E47-AFBE-474E48F94904}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1A6B0C14-DF76-3D49-A709-EA32361515D6}">
       <text>
         <r>
           <rPr>
@@ -198,41 +188,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">MATUTINA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">VESPERTINA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">NOCTURNA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>INTENSIVA</t>
+          <t xml:space="preserve">Ej.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2020/06/15</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5FCBA8F6-132C-634E-BB83-EE46B28EF48A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2E4241D1-4442-E946-86CB-DE47C90E14DE}">
       <text>
         <r>
           <rPr>
@@ -261,31 +231,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">MATUTINA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">VESPERTINA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NOCTURNA</t>
+          <t xml:space="preserve">1 si
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 no</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9F7259EF-3730-9440-9D4B-55886ABCB129}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0682D196-34D0-9B4C-ACB0-E35C948F5FF7}">
       <text>
         <r>
           <rPr>
@@ -314,51 +274,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">A
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">B
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">C
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">D
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>E</t>
+          <t xml:space="preserve">MATUTINA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">VESPERTINA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NOCTURNA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INTENSIVA</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4A93341B-AD68-904E-B98E-A9EE2AB91A61}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{CA563881-E953-2740-BB6B-FA9B981488F7}">
       <text>
         <r>
           <rPr>
@@ -387,31 +337,31 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ORDINARIA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">EXTRAORDINARIA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ESPECIAL</t>
+          <t xml:space="preserve">MATUTINA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">VESPERTINA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NOCTURNA</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{FC9ACCE3-2F1F-D04C-AFAF-25C0540EFDAC}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{89E1B9A3-1ED1-BD4A-97FF-374C6D74D922}">
       <text>
         <r>
           <rPr>
@@ -440,61 +390,51 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>6</t>
+          <t xml:space="preserve">A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">D
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>E</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{84377769-3251-8B46-BA5E-BE8EBFE4253B}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{6D722763-CF98-B348-B797-86E774DCB7B3}">
       <text>
         <r>
           <rPr>
@@ -504,7 +444,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Nicolas:</t>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
         </r>
         <r>
           <rPr>
@@ -523,21 +463,31 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 SI
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2 NO</t>
+          <t xml:space="preserve">ORDINARIA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">EXTRAORDINARIA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ESPECIAL</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{8A420EE2-AA23-A144-BC68-07CAF70647A1}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{FDA0D598-578D-8F43-BE0F-81A7AE32B5B4}">
       <text>
         <r>
           <rPr>
@@ -547,7 +497,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Nicolas:</t>
+          <t>Cesar Mauricio Tamayo Lopez:</t>
         </r>
         <r>
           <rPr>
@@ -566,396 +516,57 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 -&gt; NACIONAL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 -&gt; PROVINCIAL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 -&gt; CANTONAL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 -&gt; PARROQUIAL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5 -&gt; NO APLICA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{840B372C-3714-384D-BA2A-F87FA54710F3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 SI
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2 NO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{676478EE-E4F5-414B-9F51-12CF5BA4E76D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 -&gt; AGRICULTURA, GANADERÍA, SILVICULTURA Y PESCA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 -&gt; EXPLOTACIÓN DE MINAS Y CANTERAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 -&gt; INDUSTRIAS MANUFACTURERAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 -&gt; SUMINISTRO DE ELECTRICIDAD, GAS, VAPOR Y AIRE ACONDICIONADO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 -&gt; DISTRIBUCIÓN DE AGUA; ALCANTARILLADO, GESTIÓN DE DESECHOS Y ACTIVIDADES DE SANEAMIENTO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6 -&gt; CONSTRUCCIÓN
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7 -&gt; COMERCIO AL POR MAYOR Y AL POR MENOR REPARACIÓN DE VEHÍCULOS AUTOMOTORES Y MOTOCICLETAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">9 -&gt; TRANSPORTE Y ALMACENAMIENTO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10 -&gt; ACTIVIDADES DE ALOJAMIENTO Y DE SERVICIO DE COMIDAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11 -&gt; INFORMACIÓN Y COMUNICACIÓN
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">12 -&gt; ACTIVIDADES ﬁNANCIERAS Y DE SEGUROS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">13 -&gt; ACTIVIDADES INMOBILIARIAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">14 -&gt; ACTIVIDADES PROFESIONALES, CIENTÍﬁCAS Y TÉCNICAS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">15 -&gt; ACTIVIDADES DE SERVICIOS ADMINISTRATIVOS Y DE APOYO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">16 -&gt; ADMINISTRACIÓN PÚBLICA Y DEFENSA; PLANES DE SEGURIDAD SOCIAL DE AﬁLIACIÓN OBLIGATORIA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">17 -&gt; ENSEÑANZA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">18 -&gt; ACTIVIDADES DE ATENCIÓN DE LA SALUD HUMANA Y DE ASISTENCIA SOCIAL
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">19 -&gt; ARTES, ENTRETENIMIENTO Y RECREACIÓN
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">20 -&gt; OTRAS ACTIVIDADES DE SERVICIOS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">21 -&gt; ACTIVIDADES DE LOS HOGARES COMO PRODUCTORES DE BIENES Y SERVICIOS PARA USO PROPIO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>22 -&gt; NO APLICA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{E369FFFF-684E-B141-8012-9B0E400DBE9F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nicolas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 -&gt; PÚBLICA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 -&gt; PRIVADA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3-&gt; ONG
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 -&gt; OTRO
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5 -&gt; NO APLICA</t>
+          <t xml:space="preserve">1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6</t>
         </r>
       </text>
     </comment>
@@ -964,7 +575,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+  <si>
+    <t>tipo_identificacion</t>
+  </si>
   <si>
     <t>cedula_estudiante</t>
   </si>
@@ -981,12 +595,18 @@
     <t>nombre2</t>
   </si>
   <si>
+    <t>correo_institucional</t>
+  </si>
+  <si>
+    <t>fecha_nacimiento</t>
+  </si>
+  <si>
+    <t>fecha_inicio_carrera</t>
+  </si>
+  <si>
     <t>ha_perdido_gratuidad</t>
   </si>
   <si>
-    <t>ha_repetido_asignatura</t>
-  </si>
-  <si>
     <t>jornada_principal</t>
   </si>
   <si>
@@ -1002,62 +622,101 @@
     <t>periodo_academico_principal</t>
   </si>
   <si>
-    <t>ha_realizado_vinculacion</t>
-  </si>
-  <si>
-    <t>horas_vinculacion</t>
-  </si>
-  <si>
-    <t>alcance_vinculacion</t>
-  </si>
-  <si>
-    <t>ha_realizado_practicas</t>
-  </si>
-  <si>
-    <t>horas_practicas</t>
-  </si>
-  <si>
-    <t>sector_economico_practica</t>
-  </si>
-  <si>
-    <t>tipo_institucion_practicas</t>
-  </si>
-  <si>
-    <t>1721054342</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>PUJOTA</t>
-  </si>
-  <si>
-    <t>AUXIMARO</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
+    <t>1721678975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUNA </t>
+  </si>
+  <si>
+    <t>TOBAR</t>
+  </si>
+  <si>
+    <t>MARLON</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>mbt.pruna@yavirac.edu.ec</t>
   </si>
   <si>
     <t>INTENSIVA</t>
   </si>
   <si>
-    <t>VESPERTINA</t>
+    <t>MATUTINA</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>ORDINARIA</t>
   </si>
   <si>
-    <t>SI</t>
+    <t>1720374303</t>
+  </si>
+  <si>
+    <t>GUAITA</t>
+  </si>
+  <si>
+    <t>GUANOLUISA</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>svg.guaita@yavirac.edu.ec</t>
+  </si>
+  <si>
+    <t>1724983638</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>ALLAN</t>
+  </si>
+  <si>
+    <t>MATIAS</t>
+  </si>
+  <si>
+    <t>amm.morales@yavirac.edu.ec</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>1721845442</t>
+  </si>
+  <si>
+    <t>PADILLA</t>
+  </si>
+  <si>
+    <t>QUISHPE</t>
+  </si>
+  <si>
+    <t>ESTEFANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIZBETH </t>
+  </si>
+  <si>
+    <t>elq.padilla@yavirac.edu.ec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1077,6 +736,31 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1124,11 +808,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,49 +1141,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAB3449-CEE2-3F43-98AB-E1B419ECCF1F}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170C157-75DA-D04D-8594-A4F3250C30E1}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1502,7 +1192,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1511,83 +1201,201 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7">
+        <v>33925</v>
+      </c>
+      <c r="I2" s="7">
+        <v>44361</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7">
+        <v>31223</v>
+      </c>
+      <c r="I3" s="7">
+        <v>44361</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
+        <v>37511</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44361</v>
+      </c>
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="7">
+        <v>33877</v>
+      </c>
+      <c r="I5" s="7">
+        <v>44361</v>
+      </c>
+      <c r="J5" s="5">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2">
-        <v>160</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>580</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-      <c r="S2">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>